--- a/src/main/webapp/static/excel/excelTemplate/zjTemplate.xlsx
+++ b/src/main/webapp/static/excel/excelTemplate/zjTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19725" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <oleSize ref="A1:Z6"/>
 </workbook>
 </file>
 
@@ -500,10 +501,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -549,6 +550,96 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -559,6 +650,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -567,16 +673,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -590,104 +689,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -727,13 +728,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,151 +884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,6 +957,47 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -988,30 +1030,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1020,11 +1038,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,30 +1062,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1069,10 +1070,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,137 +1082,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1261,12 +1262,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1680,8 +1675,8 @@
   <sheetPr/>
   <dimension ref="A1:AS6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1813,38 +1808,38 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="23" t="s">
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="29" t="s">
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="34" t="s">
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1873,7 +1868,7 @@
       <c r="J4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -1890,82 +1885,82 @@
       </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="23" t="s">
+      <c r="V4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="W4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="X4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="23" t="s">
+      <c r="Y4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="23" t="s">
+      <c r="Z4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="28" t="s">
+      <c r="AB4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="29" t="s">
+      <c r="AC4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="29" t="s">
+      <c r="AD4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AE4" s="29" t="s">
+      <c r="AE4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="30" t="s">
+      <c r="AF4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AG4" s="29" t="s">
+      <c r="AG4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="31" t="s">
+      <c r="AH4" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="31" t="s">
+      <c r="AI4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="29" t="s">
+      <c r="AJ4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="32" t="s">
+      <c r="AK4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AL4" s="29" t="s">
+      <c r="AL4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29" t="s">
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AQ4" s="30" t="s">
+      <c r="AQ4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AR4" s="30" t="s">
+      <c r="AR4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AS4" s="35"/>
+      <c r="AS4" s="33"/>
     </row>
     <row r="5" ht="23.25" spans="1:45">
       <c r="A5" s="7"/>
@@ -1992,7 +1987,7 @@
         <v>44</v>
       </c>
       <c r="J5" s="13"/>
-      <c r="K5" s="18"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -2005,42 +2000,42 @@
       <c r="Q5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29" t="s">
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="AM5" s="29" t="s">
+      <c r="AM5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AN5" s="30" t="s">
+      <c r="AN5" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="AO5" s="29" t="s">
+      <c r="AO5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="29"/>
-      <c r="AS5" s="35"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="33"/>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="9" t="s">
@@ -2070,10 +2065,10 @@
       <c r="I6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="18" t="s">
         <v>59</v>
       </c>
       <c r="L6" s="11" t="s">
@@ -2103,7 +2098,7 @@
       <c r="T6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="27" t="s">
+      <c r="U6" s="25" t="s">
         <v>69</v>
       </c>
       <c r="V6" s="9" t="s">
@@ -2225,45 +2220,33 @@
     <mergeCell ref="AR4:AR5"/>
     <mergeCell ref="AS3:AS5"/>
   </mergeCells>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4">
-      <formula1>"涉密,非涉密"</formula1>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3">
+      <formula1>"财政资金,专项资金,自筹资金"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE4">
-      <formula1>"三级,二级,未定级"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3">
+      <formula1>"已招标但未开始建设,项目建设中-需求设计,项目建设中-系统开发,项目建设中-系统部署,项目建设中-系统测试,项目建设中-系统上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4 AL4:AL5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3">
+      <formula1>"自建（自有产权）,购买服务（无产权）"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3">
+      <formula1>"自建机房,省信息中心机房,运营商IDC机房"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3">
+      <formula1>"单位内部,国家垂直,覆盖省级,覆盖到市,覆盖到县,覆盖到县以下"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3">
+      <formula1>"继续建设,可以暂缓"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL4">
       <formula1>"有,无"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K5">
-      <formula1>"财政资金,专项资金,自筹资金"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M5">
-      <formula1>"已招标但未开始建设,项目建设中-需求设计,项目建设中-系统开发,项目建设中-系统部署,项目建设中-系统测试,项目建设中-系统上线"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N5">
-      <formula1>"自建（自有产权）,购买服务（无产权）"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X5">
-      <formula1>"高,中,低"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC4">
-      <formula1>"自建机房,省信息中心机房,运营商IDC机房"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG5">
-      <formula1>"单位内部,国家垂直,覆盖省级,覆盖到市,覆盖到县,覆盖到县以下"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4:AH5">
-      <formula1>"是，对接省政务信息资源共享平台,是，对接其它系统,否，无对接"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ4:AJ5">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM4:AM5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM4">
       <formula1>"本地,异地"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ5">
-      <formula1>"继续建设,可以暂缓"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/static/excel/excelTemplate/zjTemplate.xlsx
+++ b/src/main/webapp/static/excel/excelTemplate/zjTemplate.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="6705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22416" windowHeight="7596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1:Z6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>部门在建政务信息系统调查表</t>
   </si>
@@ -30,6 +30,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>单位名称</t>
@@ -41,6 +42,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统名称</t>
@@ -52,6 +54,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>基本信息</t>
@@ -69,6 +72,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统整合信息</t>
@@ -86,6 +90,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>审批时间</t>
@@ -97,6 +102,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>业务功能</t>
@@ -108,6 +114,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>建设单位</t>
@@ -125,6 +132,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统类别</t>
@@ -149,9 +157,6 @@
     <t>合同签署的维保到期时间</t>
   </si>
   <si>
-    <t>已付合同金额或比例</t>
-  </si>
-  <si>
     <t>系统建设/立项依据</t>
   </si>
   <si>
@@ -178,6 +183,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>部署位置</t>
@@ -189,6 +195,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>涉密分类</t>
@@ -200,6 +207,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>安全级别</t>
@@ -214,6 +222,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>使用范围</t>
@@ -225,6 +234,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是否与其它系统对接</t>
@@ -236,6 +246,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>对接其它系统名称</t>
@@ -247,6 +258,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是否虚拟化部署</t>
@@ -261,6 +273,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>数据备份</t>
@@ -272,6 +285,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>应用容灾</t>
@@ -289,6 +303,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系人</t>
@@ -300,6 +315,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系电话</t>
@@ -311,6 +327,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是否有备份</t>
@@ -322,6 +339,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>备份方式</t>
@@ -336,6 +354,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>数据备份量（</t>
@@ -345,7 +364,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
+        <family val="1"/>
       </rPr>
       <t>GB</t>
     </r>
@@ -354,6 +373,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -493,20 +513,44 @@
   </si>
   <si>
     <t>remarks</t>
+  </si>
+  <si>
+    <t>是否脱密处理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sftmcl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估使用对象详细说明</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ygsydxxxsm</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付合同金额</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付合同金额比例</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>yfhtjebl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +562,7 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -525,177 +570,58 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,198 +630,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -955,432 +713,171 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
-      <color rgb="00FCD5B4"/>
-      <color rgb="00E6B8B7"/>
-      <color rgb="00C5D9F1"/>
-      <color rgb="00CCC0DA"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFCD5B4"/>
+      <color rgb="FFE6B8B7"/>
+      <color rgb="FFC5D9F1"/>
+      <color rgb="FFCCC0DA"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1667,523 +1164,572 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AS6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44166666666667" customWidth="1"/>
-    <col min="2" max="2" width="10.775" customWidth="1"/>
-    <col min="3" max="3" width="9.775" customWidth="1"/>
-    <col min="4" max="4" width="10.2166666666667" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10.4416666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="9.775" customWidth="1"/>
-    <col min="9" max="9" width="11.1083333333333" customWidth="1"/>
-    <col min="10" max="10" width="11.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="7.44166666666667" customWidth="1"/>
-    <col min="12" max="12" width="9.775" customWidth="1"/>
-    <col min="13" max="13" width="8.775" customWidth="1"/>
-    <col min="14" max="16" width="6.44166666666667" customWidth="1"/>
-    <col min="17" max="17" width="9.66666666666667" customWidth="1"/>
-    <col min="18" max="18" width="7.775" customWidth="1"/>
-    <col min="19" max="19" width="8.10833333333333" customWidth="1"/>
-    <col min="20" max="20" width="9.55833333333333" customWidth="1"/>
-    <col min="21" max="21" width="8.33333333333333" customWidth="1"/>
-    <col min="22" max="22" width="8.88333333333333" customWidth="1"/>
-    <col min="23" max="23" width="8.775" customWidth="1"/>
-    <col min="24" max="24" width="9" customWidth="1"/>
-    <col min="25" max="25" width="9.33333333333333" customWidth="1"/>
-    <col min="26" max="27" width="8.33333333333333" customWidth="1"/>
-    <col min="28" max="28" width="9.55833333333333" customWidth="1"/>
-    <col min="29" max="29" width="8.33333333333333" customWidth="1"/>
-    <col min="30" max="30" width="7.21666666666667" customWidth="1"/>
-    <col min="31" max="31" width="7.775" customWidth="1"/>
-    <col min="32" max="32" width="8.88333333333333" customWidth="1"/>
-    <col min="33" max="33" width="8.21666666666667" customWidth="1"/>
-    <col min="34" max="34" width="9.21666666666667" customWidth="1"/>
-    <col min="35" max="35" width="10" customWidth="1"/>
-    <col min="36" max="36" width="9" customWidth="1"/>
-    <col min="37" max="37" width="9.21666666666667" customWidth="1"/>
-    <col min="38" max="38" width="8.88333333333333" customWidth="1"/>
-    <col min="39" max="39" width="8.775" customWidth="1"/>
-    <col min="40" max="40" width="9" customWidth="1"/>
-    <col min="41" max="41" width="7.88333333333333" customWidth="1"/>
-    <col min="42" max="42" width="7.66666666666667" customWidth="1"/>
-    <col min="43" max="43" width="8.88333333333333" customWidth="1"/>
-    <col min="44" max="44" width="9.44166666666667" customWidth="1"/>
-    <col min="45" max="45" width="6.44166666666667" customWidth="1"/>
-    <col min="48" max="48" width="6" customWidth="1"/>
-    <col min="49" max="49" width="1.775" customWidth="1"/>
-    <col min="50" max="50" width="1.88333333333333" hidden="1" customWidth="1"/>
-    <col min="53" max="56" width="1.44166666666667" customWidth="1"/>
-    <col min="58" max="58" width="1.88333333333333" customWidth="1"/>
-    <col min="59" max="59" width="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" customWidth="1"/>
+    <col min="14" max="16" width="6.44140625" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="7.77734375" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" customWidth="1"/>
+    <col min="21" max="22" width="8.33203125" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" customWidth="1"/>
+    <col min="24" max="24" width="8.77734375" customWidth="1"/>
+    <col min="25" max="25" width="9" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" customWidth="1"/>
+    <col min="27" max="27" width="8.33203125" customWidth="1"/>
+    <col min="28" max="28" width="12.44140625" customWidth="1"/>
+    <col min="29" max="29" width="8.33203125" customWidth="1"/>
+    <col min="30" max="30" width="9.5546875" customWidth="1"/>
+    <col min="31" max="31" width="8.33203125" customWidth="1"/>
+    <col min="32" max="33" width="7.21875" customWidth="1"/>
+    <col min="34" max="34" width="7.77734375" customWidth="1"/>
+    <col min="35" max="35" width="8.88671875" customWidth="1"/>
+    <col min="36" max="36" width="8.21875" customWidth="1"/>
+    <col min="37" max="37" width="9.21875" customWidth="1"/>
+    <col min="38" max="38" width="10" customWidth="1"/>
+    <col min="39" max="39" width="9" customWidth="1"/>
+    <col min="40" max="40" width="9.21875" customWidth="1"/>
+    <col min="41" max="41" width="8.88671875" customWidth="1"/>
+    <col min="42" max="42" width="8.77734375" customWidth="1"/>
+    <col min="43" max="43" width="9" customWidth="1"/>
+    <col min="44" max="44" width="7.88671875" customWidth="1"/>
+    <col min="45" max="45" width="7.6640625" customWidth="1"/>
+    <col min="46" max="46" width="8.88671875" customWidth="1"/>
+    <col min="47" max="47" width="9.44140625" customWidth="1"/>
+    <col min="48" max="48" width="6.44140625" customWidth="1"/>
+    <col min="51" max="51" width="6" customWidth="1"/>
+    <col min="52" max="52" width="1.77734375" customWidth="1"/>
+    <col min="53" max="53" width="1.88671875" hidden="1" customWidth="1"/>
+    <col min="56" max="59" width="1.44140625" customWidth="1"/>
+    <col min="61" max="61" width="1.88671875" customWidth="1"/>
+    <col min="62" max="62" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:62" ht="25.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
     </row>
-    <row r="3" spans="1:45">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="14" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
       <c r="U3" s="20"/>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="9"/>
+      <c r="W3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="21"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
       <c r="AA3" s="21"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="27" t="s">
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="32" t="s">
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="16" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="22" t="s">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="U4" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="W4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="X4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="Y4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="Z4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="AA4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="21" t="s">
+      <c r="AB4" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="21" t="s">
+      <c r="AD4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="26" t="s">
+      <c r="AE4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="27" t="s">
+      <c r="AF4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="27" t="s">
+      <c r="AG4" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AE4" s="27" t="s">
+      <c r="AI4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="28" t="s">
+      <c r="AJ4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AG4" s="27" t="s">
+      <c r="AK4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="29" t="s">
+      <c r="AL4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="29" t="s">
+      <c r="AM4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="27" t="s">
+      <c r="AN4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="30" t="s">
+      <c r="AO4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AL4" s="27" t="s">
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="27" t="s">
+      <c r="AT4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AQ4" s="28" t="s">
+      <c r="AU4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AR4" s="28" t="s">
+      <c r="AV4" s="38"/>
+    </row>
+    <row r="5" spans="1:62" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS4" s="33"/>
-    </row>
-    <row r="5" ht="23.25" spans="1:45">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="P5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="21"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="43"/>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27" t="s">
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AM5" s="27" t="s">
+      <c r="AQ5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AN5" s="28" t="s">
+      <c r="AR5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AO5" s="27" t="s">
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="38"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="33"/>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="K6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="N6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="O6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="Q6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="S6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="T6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="U6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="25" t="s">
+      <c r="V6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="X6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="Y6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="Z6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="AA6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="AB6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AD6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AB6" s="12" t="s">
+      <c r="AE6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AF6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AG6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AI6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AK6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AL6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AI6" s="11" t="s">
+      <c r="AM6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AN6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AO6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="AP6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AM6" s="11" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AN6" s="9" t="s">
+      <c r="AR6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AO6" s="9" t="s">
+      <c r="AS6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AT6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AQ6" s="11" t="s">
+      <c r="AU6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="AV6" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="AS6" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A1:AS1"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="M3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AR3"/>
+  <mergeCells count="46">
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV3:AV5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AO4:AR4"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -2197,92 +1743,69 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="A1:AV1"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="W3:AD3"/>
+    <mergeCell ref="AE3:AU3"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"财政资金,专项资金,自筹资金"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"已招标但未开始建设,项目建设中-需求设计,项目建设中-系统开发,项目建设中-系统部署,项目建设中-系统测试,项目建设中-系统上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"自建（自有产权）,购买服务（无产权）"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"自建机房,省信息中心机房,运营商IDC机房"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"单位内部,国家垂直,覆盖省级,覆盖到市,覆盖到县,覆盖到县以下"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"继续建设,可以暂缓"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"有,无"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"本地,异地"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/webapp/static/excel/excelTemplate/zjTemplate.xlsx
+++ b/src/main/webapp/static/excel/excelTemplate/zjTemplate.xlsx
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <oleSize ref="X1:AW6"/>
+  <oleSize ref="O1:AN6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342">
   <si>
     <t>单位名称
 （必填）</t>
@@ -117,6 +117,9 @@
   <si>
     <t>已付合同金额
 （必填，只填数字，单位：万元）</t>
+  </si>
+  <si>
+    <t>已付合同金额比例（%）</t>
   </si>
   <si>
     <t>系统建设/立项依据
@@ -341,6 +344,9 @@
     <t>yfhtje</t>
   </si>
   <si>
+    <t>yfhtjebl</t>
+  </si>
+  <si>
     <t>xtjsyj</t>
   </si>
   <si>
@@ -1141,11 +1147,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1238,7 +1244,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,45 +1272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1305,7 +1289,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1319,33 +1311,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,22 +1342,46 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1427,7 +1433,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,31 +1571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,121 +1589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,6 +1681,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1693,8 +1708,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1710,15 +1725,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1760,10 +1766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1772,133 +1778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2417,10 +2423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT5"/>
+  <dimension ref="A1:AU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -2444,46 +2450,46 @@
     <col min="17" max="17" width="12.75" style="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="1" customWidth="1"/>
     <col min="19" max="19" width="14.6296296296296" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.8796296296296" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.25" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.77777777777778" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.33333333333333" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.4444444444444" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.8796296296296" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.75" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.1296296296296" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.3796296296296" style="1" customWidth="1"/>
-    <col min="34" max="34" width="9.25" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.22222222222222" style="1" customWidth="1"/>
-    <col min="36" max="36" width="12.8796296296296" style="1" customWidth="1"/>
-    <col min="37" max="37" width="9" style="1" customWidth="1"/>
-    <col min="38" max="38" width="9.22222222222222" style="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5" style="1" customWidth="1"/>
-    <col min="40" max="40" width="8.77777777777778" style="1" customWidth="1"/>
-    <col min="41" max="41" width="9" style="1" customWidth="1"/>
-    <col min="42" max="42" width="7.88888888888889" style="1" customWidth="1"/>
-    <col min="43" max="43" width="10.3796296296296" style="1" customWidth="1"/>
-    <col min="44" max="44" width="8.88888888888889" style="1" customWidth="1"/>
-    <col min="45" max="45" width="9.44444444444444" style="1" customWidth="1"/>
-    <col min="46" max="46" width="9.25" style="1" customWidth="1"/>
-    <col min="47" max="48" width="9" style="1"/>
-    <col min="49" max="49" width="6" style="1" customWidth="1"/>
-    <col min="50" max="50" width="1.77777777777778" style="1" customWidth="1"/>
-    <col min="51" max="51" width="1.88888888888889" style="1" hidden="1" customWidth="1"/>
-    <col min="52" max="53" width="9" style="1"/>
-    <col min="54" max="57" width="1.44444444444444" style="1" customWidth="1"/>
-    <col min="58" max="58" width="9" style="1"/>
-    <col min="59" max="59" width="1.88888888888889" style="1" customWidth="1"/>
-    <col min="60" max="60" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="61" max="16384" width="9" style="1"/>
+    <col min="20" max="21" width="13.8796296296296" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.25" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.77777777777778" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.33333333333333" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.4444444444444" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.8796296296296" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.75" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1296296296296" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.3796296296296" style="1" customWidth="1"/>
+    <col min="35" max="35" width="9.25" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.22222222222222" style="1" customWidth="1"/>
+    <col min="37" max="37" width="12.8796296296296" style="1" customWidth="1"/>
+    <col min="38" max="38" width="9" style="1" customWidth="1"/>
+    <col min="39" max="39" width="9.22222222222222" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.5" style="1" customWidth="1"/>
+    <col min="41" max="41" width="8.77777777777778" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9" style="1" customWidth="1"/>
+    <col min="43" max="43" width="7.88888888888889" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.3796296296296" style="1" customWidth="1"/>
+    <col min="45" max="45" width="8.88888888888889" style="1" customWidth="1"/>
+    <col min="46" max="46" width="9.44444444444444" style="1" customWidth="1"/>
+    <col min="47" max="47" width="9.25" style="1" customWidth="1"/>
+    <col min="48" max="49" width="9" style="1"/>
+    <col min="50" max="50" width="6" style="1" customWidth="1"/>
+    <col min="51" max="51" width="1.77777777777778" style="1" customWidth="1"/>
+    <col min="52" max="52" width="1.88888888888889" style="1" hidden="1" customWidth="1"/>
+    <col min="53" max="54" width="9" style="1"/>
+    <col min="55" max="58" width="1.44444444444444" style="1" customWidth="1"/>
+    <col min="59" max="59" width="9" style="1"/>
+    <col min="60" max="60" width="1.88888888888889" style="1" customWidth="1"/>
+    <col min="61" max="61" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="62" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:46">
+    <row r="1" ht="25.8" spans="1:47">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2530,8 +2536,9 @@
       <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
-    </row>
-    <row r="2" ht="17.4" spans="1:46">
+      <c r="AU1" s="2"/>
+    </row>
+    <row r="2" ht="17.4" spans="1:47">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2560,20 +2567,20 @@
       <c r="R2" s="29"/>
       <c r="S2" s="29"/>
       <c r="T2" s="30"/>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="31"/>
       <c r="W2" s="31"/>
       <c r="X2" s="31"/>
       <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
       <c r="AA2" s="31"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="39" t="s">
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="40"/>
       <c r="AE2" s="40"/>
       <c r="AF2" s="40"/>
       <c r="AG2" s="40"/>
@@ -2589,11 +2596,12 @@
       <c r="AQ2" s="40"/>
       <c r="AR2" s="40"/>
       <c r="AS2" s="40"/>
-      <c r="AT2" s="50" t="s">
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="40" customHeight="1" spans="1:46">
+    <row r="3" ht="40" customHeight="1" spans="1:47">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -2646,7 +2654,7 @@
       <c r="T3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="U3" s="33" t="s">
         <v>23</v>
       </c>
       <c r="V3" s="34" t="s">
@@ -2661,40 +2669,40 @@
       <c r="Y3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="Z3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="34" t="s">
+      <c r="AA3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="42" t="s">
+      <c r="AB3" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="43" t="s">
+      <c r="AC3" s="42" t="s">
         <v>31</v>
       </c>
       <c r="AD3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="44" t="s">
+      <c r="AE3" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="43" t="s">
+      <c r="AF3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="48" t="s">
+      <c r="AG3" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="43" t="s">
+      <c r="AH3" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="49" t="s">
+      <c r="AI3" s="43" t="s">
         <v>37</v>
       </c>
       <c r="AJ3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="43" t="s">
+      <c r="AK3" s="49" t="s">
         <v>39</v>
       </c>
       <c r="AL3" s="43" t="s">
@@ -2703,21 +2711,24 @@
       <c r="AM3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="46"/>
+      <c r="AN3" s="43" t="s">
+        <v>42</v>
+      </c>
       <c r="AO3" s="46"/>
       <c r="AP3" s="46"/>
-      <c r="AQ3" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR3" s="48" t="s">
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="43" t="s">
         <v>43</v>
       </c>
       <c r="AS3" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AT3" s="51"/>
-    </row>
-    <row r="4" ht="40" customHeight="1" spans="1:46">
+      <c r="AT3" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU3" s="51"/>
+    </row>
+    <row r="4" ht="40" customHeight="1" spans="1:47">
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
@@ -2726,19 +2737,19 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="11"/>
@@ -2749,200 +2760,204 @@
         <v>0</v>
       </c>
       <c r="O4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
       <c r="S4" s="35"/>
       <c r="T4" s="36"/>
-      <c r="U4" s="34"/>
+      <c r="U4" s="33"/>
       <c r="V4" s="34"/>
       <c r="W4" s="34"/>
       <c r="X4" s="34"/>
       <c r="Y4" s="34"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="46"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="42"/>
       <c r="AD4" s="46"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="47"/>
       <c r="AG4" s="46"/>
       <c r="AH4" s="46"/>
-      <c r="AI4" s="47"/>
+      <c r="AI4" s="46"/>
       <c r="AJ4" s="47"/>
-      <c r="AK4" s="46"/>
+      <c r="AK4" s="47"/>
       <c r="AL4" s="46"/>
-      <c r="AM4" s="43" t="s">
-        <v>51</v>
-      </c>
+      <c r="AM4" s="46"/>
       <c r="AN4" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="48" t="s">
+      <c r="AO4" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="AP4" s="43" t="s">
+      <c r="AP4" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="AQ4" s="46"/>
+      <c r="AQ4" s="43" t="s">
+        <v>55</v>
+      </c>
       <c r="AR4" s="46"/>
       <c r="AS4" s="46"/>
-      <c r="AT4" s="51"/>
-    </row>
-    <row r="5" spans="1:46">
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="51"/>
+    </row>
+    <row r="5" spans="1:47">
       <c r="A5" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="U5" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="U5" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="V5" s="17" t="s">
         <v>77</v>
       </c>
+      <c r="W5" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="X5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="15" t="s">
         <v>79</v>
       </c>
+      <c r="Y5" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="Z5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA5" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AA5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AB5" s="17" t="s">
         <v>83</v>
       </c>
+      <c r="AC5" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="AD5" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF5" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG5" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH5" s="17" t="s">
         <v>88</v>
       </c>
+      <c r="AH5" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="AI5" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ5" s="15" t="s">
         <v>90</v>
       </c>
+      <c r="AJ5" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="AK5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL5" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="AM5" s="15" t="s">
+      <c r="AL5" s="15" t="s">
         <v>93</v>
       </c>
+      <c r="AM5" s="17" t="s">
+        <v>94</v>
+      </c>
       <c r="AN5" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO5" s="17" t="s">
         <v>95</v>
       </c>
+      <c r="AO5" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="AP5" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AQ5" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR5" s="15" t="s">
         <v>98</v>
       </c>
+      <c r="AR5" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="AS5" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT5" s="17" t="s">
         <v>100</v>
       </c>
+      <c r="AT5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU5" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A1:AT1"/>
+  <mergeCells count="45">
+    <mergeCell ref="A1:AU1"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AB2"/>
-    <mergeCell ref="AC2:AS2"/>
+    <mergeCell ref="V2:AC2"/>
+    <mergeCell ref="AD2:AT2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AN3:AQ3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -2975,10 +2990,11 @@
     <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AM3:AM4"/>
     <mergeCell ref="AR3:AR4"/>
     <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
@@ -2990,22 +3006,22 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>"自建（自有产权）,购买服务（无产权）"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
       <formula1>"自建机房,省信息中心机房,运营商IDC机房"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2">
       <formula1>"单位内部,国家垂直,覆盖省级,覆盖到市,覆盖到县,覆盖到县以下"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2">
       <formula1>"继续建设,可以暂缓"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3">
       <formula1>"有,无"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3">
       <formula1>"本地,异地"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3028,1207 +3044,1207 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/static/excel/excelTemplate/zjTemplate.xlsx
+++ b/src/main/webapp/static/excel/excelTemplate/zjTemplate.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9924" tabRatio="516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17616" windowHeight="5268" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="在建信息系统模板" sheetId="1" r:id="rId1"/>
     <sheet name="下拉选框附页" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="O1:AN6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="342">
   <si>
     <t>单位名称
 （必填）</t>
@@ -268,7 +268,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GB</t>
     </r>
@@ -1145,15 +1145,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,7 +1184,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1209,7 +1205,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1221,7 +1217,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1240,150 +1236,13 @@
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1397,10 +1256,16 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1409,198 +1274,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799951170384838"/>
+        <fgColor theme="3" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1660,267 +1357,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1930,39 +1517,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1972,57 +1526,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2032,105 +1544,29 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
-      <color rgb="00FCD5B4"/>
-      <color rgb="00E6B8B7"/>
-      <color rgb="00C5D9F1"/>
-      <color rgb="00CCC0DA"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFCD5B4"/>
+      <color rgb="FFE6B8B7"/>
+      <color rgb="FFC5D9F1"/>
+      <color rgb="FFCCC0DA"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2417,534 +1853,533 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AU5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3796296296296" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1111111111111" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1296296296296" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77777777777778" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77777777777778" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1296296296296" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.62962962962963" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1296296296296" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6296296296296" style="1" customWidth="1"/>
-    <col min="20" max="21" width="13.8796296296296" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.25" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.77777777777778" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="14" style="13" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" style="13" customWidth="1"/>
+    <col min="20" max="21" width="13.88671875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.21875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.77734375" style="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.33333333333333" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.75" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.4444444444444" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.77734375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.44140625" style="1" customWidth="1"/>
     <col min="28" max="28" width="13" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.8796296296296" style="1" customWidth="1"/>
-    <col min="30" max="30" width="11.75" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" style="13" customWidth="1"/>
+    <col min="30" max="30" width="11.77734375" style="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="1" customWidth="1"/>
     <col min="32" max="32" width="8" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.1296296296296" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.3796296296296" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.25" style="1" customWidth="1"/>
-    <col min="36" max="36" width="9.22222222222222" style="1" customWidth="1"/>
-    <col min="37" max="37" width="12.8796296296296" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.33203125" style="1" customWidth="1"/>
+    <col min="35" max="36" width="9.21875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="12.88671875" style="1" customWidth="1"/>
     <col min="38" max="38" width="9" style="1" customWidth="1"/>
-    <col min="39" max="39" width="9.22222222222222" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.5" style="1" customWidth="1"/>
-    <col min="41" max="41" width="8.77777777777778" style="1" customWidth="1"/>
+    <col min="39" max="39" width="9.21875" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.44140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="8.77734375" style="1" customWidth="1"/>
     <col min="42" max="42" width="9" style="1" customWidth="1"/>
-    <col min="43" max="43" width="7.88888888888889" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.3796296296296" style="1" customWidth="1"/>
-    <col min="45" max="45" width="8.88888888888889" style="1" customWidth="1"/>
-    <col min="46" max="46" width="9.44444444444444" style="1" customWidth="1"/>
-    <col min="47" max="47" width="9.25" style="1" customWidth="1"/>
+    <col min="43" max="43" width="7.88671875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.33203125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="8.88671875" style="1" customWidth="1"/>
+    <col min="46" max="46" width="9.44140625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="9.21875" style="1" customWidth="1"/>
     <col min="48" max="49" width="9" style="1"/>
     <col min="50" max="50" width="6" style="1" customWidth="1"/>
-    <col min="51" max="51" width="1.77777777777778" style="1" customWidth="1"/>
-    <col min="52" max="52" width="1.88888888888889" style="1" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="1.77734375" style="1" customWidth="1"/>
+    <col min="52" max="52" width="1.88671875" style="1" hidden="1" customWidth="1"/>
     <col min="53" max="54" width="9" style="1"/>
-    <col min="55" max="58" width="1.44444444444444" style="1" customWidth="1"/>
+    <col min="55" max="58" width="1.44140625" style="1" customWidth="1"/>
     <col min="59" max="59" width="9" style="1"/>
-    <col min="60" max="60" width="1.88888888888889" style="1" customWidth="1"/>
+    <col min="60" max="60" width="1.88671875" style="1" customWidth="1"/>
     <col min="61" max="61" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="62" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:47">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-    </row>
-    <row r="2" ht="17.4" spans="1:47">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:47" ht="25.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+    </row>
+    <row r="2" spans="1:47" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="19" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39" t="s">
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="50" t="s">
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="40" customHeight="1" spans="1:47">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:47" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="21" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="32" t="s">
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="U3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="V3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="W3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="34" t="s">
+      <c r="Y3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="41" t="s">
+      <c r="AA3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="42" t="s">
+      <c r="AC3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="43" t="s">
+      <c r="AD3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="43" t="s">
+      <c r="AE3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="44" t="s">
+      <c r="AF3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="43" t="s">
+      <c r="AG3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="48" t="s">
+      <c r="AH3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="43" t="s">
+      <c r="AI3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="49" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="49" t="s">
+      <c r="AK3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="43" t="s">
+      <c r="AL3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="43" t="s">
+      <c r="AM3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="43" t="s">
+      <c r="AN3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="43" t="s">
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AS3" s="48" t="s">
+      <c r="AS3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AT3" s="48" t="s">
+      <c r="AT3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="51"/>
-    </row>
-    <row r="4" ht="40" customHeight="1" spans="1:47">
-      <c r="A4" s="12" t="s">
+      <c r="AU3" s="18"/>
+    </row>
+    <row r="4" spans="1:47" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="26" t="s">
+      <c r="I4" s="42"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="43" t="s">
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="43" t="s">
+      <c r="AO4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AP4" s="48" t="s">
+      <c r="AP4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AQ4" s="43" t="s">
+      <c r="AQ4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="51"/>
-    </row>
-    <row r="5" spans="1:47">
-      <c r="A5" s="15" t="s">
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="18"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="37" t="s">
+      <c r="T5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="U5" s="37" t="s">
+      <c r="U5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="Z5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="17" t="s">
+      <c r="AB5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AC5" s="16" t="s">
+      <c r="AC5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AD5" s="15" t="s">
+      <c r="AD5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AE5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AF5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AG5" s="15" t="s">
+      <c r="AG5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AH5" s="15" t="s">
+      <c r="AH5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AI5" s="17" t="s">
+      <c r="AI5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AJ5" s="17" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AK5" s="15" t="s">
+      <c r="AK5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AL5" s="15" t="s">
+      <c r="AL5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AM5" s="17" t="s">
+      <c r="AM5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AN5" s="15" t="s">
+      <c r="AN5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AO5" s="15" t="s">
+      <c r="AO5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AP5" s="17" t="s">
+      <c r="AP5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AQ5" s="17" t="s">
+      <c r="AQ5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AR5" s="17" t="s">
+      <c r="AR5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AS5" s="15" t="s">
+      <c r="AS5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AT5" s="15" t="s">
+      <c r="AT5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AU5" s="17" t="s">
+      <c r="AU5" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2986,1285 +2421,1279 @@
     <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AL3:AL4"/>
     <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"财政资金,专项资金,自筹资金"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"已招标但未开始建设,项目建设中-需求设计,项目建设中-系统开发,项目建设中-系统部署,项目建设中-系统测试,项目建设中-系统上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"自建（自有产权）,购买服务（无产权）"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"自建机房,省信息中心机房,运营商IDC机房"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"单位内部,国家垂直,覆盖省级,覆盖到市,覆盖到县,覆盖到县以下"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"继续建设,可以暂缓"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"有,无"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"本地,异地"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>341</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/webapp/static/excel/excelTemplate/zjTemplate.xlsx
+++ b/src/main/webapp/static/excel/excelTemplate/zjTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17616" windowHeight="5268" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17952" windowHeight="3864" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="在建信息系统模板" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
   <si>
     <t>已付合同金额
 （必填，只填数字，单位：万元）</t>
-  </si>
-  <si>
-    <t>已付合同金额比例（%）</t>
   </si>
   <si>
     <t>系统建设/立项依据
@@ -1140,6 +1137,10 @@
   </si>
   <si>
     <t>珠海市路桥管理处</t>
+  </si>
+  <si>
+    <t>已付合同金额比例（%）(导入时请自动删除此列)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1409,12 +1410,129 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1425,123 +1543,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1861,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1925,471 +1926,490 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="25.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
     </row>
     <row r="2" spans="1:47" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="51" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="22"/>
       <c r="U2" s="8"/>
-      <c r="V2" s="55" t="s">
+      <c r="V2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="57" t="s">
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="17" t="s">
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="41" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="44" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="S3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="V3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="W3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="X3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="Y3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Z3" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="AA3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="23" t="s">
+      <c r="AB3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AC3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AD3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AE3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AF3" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="21" t="s">
+      <c r="AG3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AH3" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="16" t="s">
+      <c r="AI3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="14" t="s">
+      <c r="AJ3" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="AK3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AL3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="14" t="s">
+      <c r="AM3" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="14" t="s">
+      <c r="AN3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="14" t="s">
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AS3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="AS3" s="16" t="s">
+      <c r="AT3" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="AT3" s="16" t="s">
+      <c r="AU3" s="57"/>
+    </row>
+    <row r="4" spans="1:47" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="18"/>
-    </row>
-    <row r="4" spans="1:47" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="38" t="s">
+      <c r="E4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="10" t="s">
+      <c r="AO4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="10" t="s">
+      <c r="AP4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AP4" s="11" t="s">
+      <c r="AQ4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AQ4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="18"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="57"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="R5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="S5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="T5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="V5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Z5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AC5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AC5" s="12" t="s">
+      <c r="AD5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AI5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AK5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AL5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AM5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AM5" s="4" t="s">
+      <c r="AN5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AO5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AP5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AP5" s="4" t="s">
+      <c r="AQ5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AR5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AR5" s="4" t="s">
+      <c r="AS5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AT5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AU5" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:AU1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="V2:AC2"/>
-    <mergeCell ref="AD2:AT2"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="AN3:AQ3"/>
@@ -2406,30 +2426,11 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="A1:AU1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="V2:AC2"/>
+    <mergeCell ref="AD2:AT2"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="9">
@@ -2476,1207 +2477,1207 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
